--- a/AGVN_Web/data/base/template.xlsx
+++ b/AGVN_Web/data/base/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.23.39576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="단어" sheetId="2" r:id="rId1"/>
@@ -955,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -967,17 +967,17 @@
     <col min="4" max="4" width="100.62999725" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -990,10 +990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1003,17 +1003,17 @@
     <col min="5" max="5" width="100.62999725" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
